--- a/StateOfPractice/DomainMeasurements/LBM-Peter/Completed_LBS_Combined_MeasurementTemplate_EmpiricalMeasures_ADDED_MUSUBI_UPDATED_STATS.xlsx
+++ b/StateOfPractice/DomainMeasurements/LBM-Peter/Completed_LBS_Combined_MeasurementTemplate_EmpiricalMeasures_ADDED_MUSUBI_UPDATED_STATS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="633">
   <si>
     <t xml:space="preserve">Software name?</t>
   </si>
@@ -1433,10 +1433,10 @@
     <t xml:space="preserve">yes, contact email to contribute</t>
   </si>
   <si>
-    <t xml:space="preserve">yes, https://i10git.cs.fau.de/walberla/walberla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes, http://sailfish.us.edu.pl/about.html#development-team</t>
+    <t xml:space="preserve">yes, https://i10git.cs.fau.de/walberla/walberla, only info on signed contributor agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, http://sailfish.us.edu.pl/about.html#development-team, no specific file</t>
   </si>
   <si>
     <t xml:space="preserve">yes, https://gitlab.com/unigespc/palabos/blob/master/CONTRIBUTING.md</t>
@@ -1458,6 +1458,9 @@
   </si>
   <si>
     <t xml:space="preserve">yes, Contributing section of User’s Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes in wiki</t>
   </si>
   <si>
     <t xml:space="preserve">yes, brief generic guides at bottom of github main page</t>
@@ -1798,6 +1801,9 @@
   </si>
   <si>
     <t xml:space="preserve">yes, https://www.scd.stfc.ac.uk/Pages/DL_MESO-infomail.aspx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, https://i10git.cs.fau.de/walberla/walberla</t>
   </si>
   <si>
     <t xml:space="preserve">yes, http://sailfish.us.edu.pl/release.html</t>
@@ -2132,7 +2138,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2221,36 +2227,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2273,14 +2251,14 @@
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="U68" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="S1" activeCellId="0" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
-      <selection pane="bottomRight" activeCell="U83" activeCellId="0" sqref="U83"/>
+      <selection pane="topRight" activeCell="U1" activeCellId="0" sqref="U1"/>
+      <selection pane="bottomLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
+      <selection pane="bottomRight" activeCell="W73" activeCellId="0" sqref="W73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.87"/>
@@ -7276,7 +7254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>441</v>
       </c>
@@ -7344,13 +7322,13 @@
         <v>451</v>
       </c>
       <c r="W72" s="0" t="s">
-        <v>208</v>
+        <v>452</v>
       </c>
       <c r="X72" s="0" t="s">
         <v>208</v>
       </c>
       <c r="Y72" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z72" s="0" t="s">
         <v>208</v>
@@ -7358,132 +7336,132 @@
     </row>
     <row r="73" customFormat="false" ht="73.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="U73" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="V73" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="W73" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="X73" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y73" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z73" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>419</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>481</v>
-      </c>
       <c r="G74" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>412</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>412</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q74" s="2" t="s">
         <v>419</v>
@@ -7495,22 +7473,22 @@
         <v>419</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="U74" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="V74" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="W74" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="X74" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Y74" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Z74" s="0" t="s">
         <v>419</v>
@@ -7518,19 +7496,19 @@
     </row>
     <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D75" s="18" t="n">
         <v>0.729</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F75" s="18" t="n">
         <v>0.2222</v>
@@ -7539,13 +7517,13 @@
         <v>0.8947</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I75" s="18" t="n">
         <v>1</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K75" s="18" t="n">
         <v>0.8571</v>
@@ -7554,7 +7532,7 @@
         <v>0.6</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N75" s="18" t="n">
         <v>0.3333</v>
@@ -7563,16 +7541,16 @@
         <v>0.6666</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="T75" s="18" t="n">
         <v>0.9333</v>
@@ -7587,21 +7565,21 @@
         <v>0.6628</v>
       </c>
       <c r="X75" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Y75" s="19" t="n">
         <v>0.1875</v>
       </c>
       <c r="Z75" s="0" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="76" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="20" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C76" s="21" t="n">
         <f aca="false">C122/C120</f>
@@ -7699,53 +7677,53 @@
         <f aca="false">Z122/Z120</f>
         <v>0.241919405134827</v>
       </c>
-      <c r="AC76" s="23"/>
+      <c r="AC76" s="19"/>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>104</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P77" s="2" t="s">
         <v>104</v>
@@ -7760,22 +7738,22 @@
         <v>104</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="U77" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="V77" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="W77" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="X77" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Y77" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Z77" s="0" t="s">
         <v>104</v>
@@ -7866,30 +7844,30 @@
         <v>223</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Y79" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="80" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -7911,113 +7889,113 @@
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
     </row>
-    <row r="81" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="24" t="s">
-        <v>505</v>
-      </c>
-      <c r="B81" s="24" t="s">
+    <row r="81" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C81" s="25" t="n">
+      <c r="C81" s="22" t="n">
         <f aca="false">C110+C111</f>
         <v>361</v>
       </c>
-      <c r="D81" s="25" t="n">
+      <c r="D81" s="22" t="n">
         <f aca="false">D110+D111</f>
         <v>2712</v>
       </c>
-      <c r="E81" s="25" t="n">
+      <c r="E81" s="22" t="n">
         <f aca="false">E110+E111</f>
         <v>37</v>
       </c>
-      <c r="F81" s="25" t="n">
+      <c r="F81" s="22" t="n">
         <f aca="false">F110+F111</f>
         <v>643</v>
       </c>
-      <c r="G81" s="25" t="n">
+      <c r="G81" s="22" t="n">
         <f aca="false">G110+G111</f>
         <v>2045</v>
       </c>
-      <c r="H81" s="25" t="n">
+      <c r="H81" s="22" t="n">
         <f aca="false">H110+H111</f>
         <v>1445</v>
       </c>
-      <c r="I81" s="25" t="n">
+      <c r="I81" s="22" t="n">
         <f aca="false">I110+I111</f>
         <v>310</v>
       </c>
-      <c r="J81" s="25" t="n">
+      <c r="J81" s="22" t="n">
         <f aca="false">J110+J111</f>
         <v>336</v>
       </c>
-      <c r="K81" s="25" t="n">
+      <c r="K81" s="22" t="n">
         <f aca="false">K110+K111</f>
         <v>333</v>
       </c>
-      <c r="L81" s="25" t="n">
+      <c r="L81" s="22" t="n">
         <f aca="false">L110+L111</f>
         <v>986</v>
       </c>
-      <c r="M81" s="25" t="n">
+      <c r="M81" s="22" t="n">
         <f aca="false">M110+M111</f>
         <v>27</v>
       </c>
-      <c r="N81" s="25" t="n">
+      <c r="N81" s="22" t="n">
         <f aca="false">N110+N111</f>
         <v>74</v>
       </c>
-      <c r="O81" s="25" t="n">
+      <c r="O81" s="22" t="n">
         <f aca="false">O110+O111</f>
         <v>380</v>
       </c>
-      <c r="P81" s="25" t="n">
+      <c r="P81" s="22" t="n">
         <f aca="false">P110+P111</f>
         <v>279</v>
       </c>
-      <c r="Q81" s="25" t="n">
+      <c r="Q81" s="22" t="n">
         <f aca="false">Q110+Q111</f>
         <v>175</v>
       </c>
-      <c r="R81" s="25" t="n">
+      <c r="R81" s="22" t="n">
         <f aca="false">R110+R111</f>
         <v>29</v>
       </c>
-      <c r="S81" s="25" t="n">
+      <c r="S81" s="22" t="n">
         <f aca="false">S110+S111</f>
         <v>101</v>
       </c>
-      <c r="T81" s="25" t="n">
+      <c r="T81" s="22" t="n">
         <f aca="false">T110+T111</f>
         <v>41</v>
       </c>
-      <c r="U81" s="25" t="n">
+      <c r="U81" s="22" t="n">
         <f aca="false">U110+U111</f>
         <v>603</v>
       </c>
-      <c r="V81" s="25" t="n">
+      <c r="V81" s="22" t="n">
         <f aca="false">V110+V111</f>
         <v>1473</v>
       </c>
-      <c r="W81" s="25" t="n">
+      <c r="W81" s="22" t="n">
         <f aca="false">W110+W111</f>
         <v>1436</v>
       </c>
-      <c r="X81" s="25" t="n">
+      <c r="X81" s="22" t="n">
         <f aca="false">X110+X111</f>
         <v>1146</v>
       </c>
-      <c r="Y81" s="25" t="n">
+      <c r="Y81" s="22" t="n">
         <f aca="false">Y110+Y111</f>
         <v>134</v>
       </c>
-      <c r="Z81" s="25" t="n">
+      <c r="Z81" s="22" t="n">
         <f aca="false">Z110+Z111</f>
         <v>3186</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>230</v>
@@ -8100,7 +8078,7 @@
         <v>289</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>5</v>
@@ -8156,7 +8134,7 @@
       <c r="T83" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="U83" s="22" t="n">
+      <c r="U83" s="0" t="n">
         <v>6</v>
       </c>
       <c r="V83" s="0" t="n">
@@ -8192,7 +8170,7 @@
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
@@ -8203,7 +8181,7 @@
     </row>
     <row r="85" s="7" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -8227,7 +8205,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>234</v>
@@ -8307,10 +8285,10 @@
     </row>
     <row r="87" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>208</v>
@@ -8337,7 +8315,7 @@
         <v>208</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>208</v>
@@ -8376,21 +8354,21 @@
         <v>208</v>
       </c>
       <c r="X87" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Y87" s="0" t="s">
         <v>208</v>
       </c>
       <c r="Z87" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>228</v>
@@ -8438,10 +8416,10 @@
         <v>228</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T88" s="2" t="s">
         <v>228</v>
@@ -8467,25 +8445,25 @@
     </row>
     <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>208</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>208</v>
@@ -8494,19 +8472,19 @@
         <v>208</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>208</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>208</v>
@@ -8521,14 +8499,14 @@
         <v>208</v>
       </c>
       <c r="S89" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="U89" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="T89" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="U89" s="16" t="s">
-        <v>528</v>
-      </c>
       <c r="V89" s="16" t="s">
         <v>208</v>
       </c>
@@ -8536,21 +8514,21 @@
         <v>208</v>
       </c>
       <c r="X89" s="16" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Y89" s="16" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Z89" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>228</v>
@@ -8627,40 +8605,40 @@
     </row>
     <row r="91" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>228</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>228</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>228</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>228</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>228</v>
@@ -8675,42 +8653,42 @@
         <v>228</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="U91" s="0" t="s">
         <v>228</v>
       </c>
       <c r="V91" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="W91" s="0" t="s">
         <v>228</v>
       </c>
       <c r="X91" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Y91" s="0" t="s">
         <v>228</v>
       </c>
       <c r="Z91" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>228</v>
@@ -8731,7 +8709,7 @@
         <v>228</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>228</v>
@@ -8740,10 +8718,10 @@
         <v>228</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>228</v>
@@ -8752,10 +8730,10 @@
         <v>228</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="R92" s="2" t="s">
         <v>228</v>
@@ -8767,19 +8745,19 @@
         <v>228</v>
       </c>
       <c r="U92" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="V92" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="W92" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="X92" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Y92" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z92" s="0" t="s">
         <v>228</v>
@@ -8787,10 +8765,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>228</v>
@@ -8870,7 +8848,7 @@
         <v>289</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>9</v>
@@ -8950,27 +8928,27 @@
         <v>223</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>539</v>
-      </c>
       <c r="G95" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="R95" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="96" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -8994,10 +8972,10 @@
     </row>
     <row r="97" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>208</v>
@@ -9027,7 +9005,7 @@
         <v>208</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>208</v>
@@ -9074,7 +9052,7 @@
     </row>
     <row r="98" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>237</v>
@@ -9092,7 +9070,7 @@
         <v>208</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>208</v>
@@ -9107,7 +9085,7 @@
         <v>447</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M98" s="2" t="s">
         <v>208</v>
@@ -9116,10 +9094,10 @@
         <v>208</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P98" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q98" s="2" t="s">
         <v>208</v>
@@ -9134,10 +9112,10 @@
         <v>208</v>
       </c>
       <c r="U98" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="V98" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="W98" s="0" t="s">
         <v>208</v>
@@ -9154,7 +9132,7 @@
     </row>
     <row r="99" customFormat="false" ht="27.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>206</v>
@@ -9175,10 +9153,10 @@
         <v>208</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>208</v>
@@ -9190,10 +9168,10 @@
         <v>208</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>208</v>
@@ -9205,13 +9183,13 @@
         <v>208</v>
       </c>
       <c r="R99" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="T99" s="8" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="U99" s="0" t="s">
         <v>208</v>
@@ -9223,7 +9201,7 @@
         <v>208</v>
       </c>
       <c r="X99" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="Y99" s="0" t="s">
         <v>208</v>
@@ -9234,40 +9212,40 @@
     </row>
     <row r="100" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>443</v>
+        <v>566</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>208</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>208</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="M100" s="2" t="s">
         <v>208</v>
@@ -9399,7 +9377,7 @@
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -9411,7 +9389,7 @@
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
       <c r="N102" s="8" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
@@ -9420,1683 +9398,1683 @@
       <c r="S102" s="3"/>
       <c r="T102" s="3"/>
     </row>
-    <row r="105" s="22" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="24"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24" t="s">
-        <v>573</v>
-      </c>
-      <c r="G105" s="24"/>
-      <c r="H105" s="24"/>
-      <c r="I105" s="24"/>
-      <c r="J105" s="24"/>
-      <c r="K105" s="24"/>
-      <c r="L105" s="24"/>
-      <c r="M105" s="24"/>
-      <c r="N105" s="24"/>
-      <c r="O105" s="24"/>
-      <c r="P105" s="24"/>
-      <c r="Q105" s="24"/>
-      <c r="R105" s="24"/>
-      <c r="S105" s="24"/>
-      <c r="T105" s="24"/>
-    </row>
-    <row r="106" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="24"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="24"/>
-      <c r="K106" s="24"/>
-      <c r="L106" s="24"/>
-      <c r="M106" s="24"/>
-      <c r="N106" s="24"/>
-      <c r="O106" s="24"/>
-      <c r="P106" s="24"/>
-      <c r="Q106" s="24"/>
-      <c r="R106" s="24"/>
-      <c r="S106" s="24"/>
-      <c r="T106" s="24"/>
-    </row>
-    <row r="107" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="24" t="s">
-        <v>574</v>
-      </c>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="24"/>
-      <c r="K107" s="24"/>
-      <c r="L107" s="24"/>
-      <c r="M107" s="24"/>
-      <c r="N107" s="24"/>
-      <c r="O107" s="24"/>
-      <c r="P107" s="24"/>
-      <c r="Q107" s="24" t="s">
+    <row r="105" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="R107" s="24"/>
-      <c r="S107" s="24"/>
-      <c r="T107" s="24"/>
-      <c r="X107" s="22" t="s">
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="108" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="24"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="24"/>
-      <c r="I108" s="24"/>
-      <c r="J108" s="24"/>
-      <c r="K108" s="24"/>
-      <c r="L108" s="24"/>
-      <c r="M108" s="24"/>
-      <c r="N108" s="24"/>
-      <c r="O108" s="24"/>
-      <c r="P108" s="24"/>
-      <c r="Q108" s="24"/>
-      <c r="R108" s="24"/>
-      <c r="S108" s="24"/>
-      <c r="T108" s="24"/>
-      <c r="X108" s="22" t="s">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="109" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="27" t="s">
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="X107" s="0" t="s">
         <v>578</v>
       </c>
-      <c r="B109" s="28"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="28"/>
-      <c r="J109" s="28"/>
-      <c r="K109" s="28"/>
-      <c r="L109" s="28"/>
-      <c r="M109" s="28"/>
-      <c r="N109" s="28"/>
-      <c r="O109" s="28"/>
-      <c r="P109" s="28" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="X108" s="0" t="s">
         <v>579</v>
       </c>
-      <c r="Q109" s="28"/>
-      <c r="R109" s="28"/>
-      <c r="S109" s="28"/>
-      <c r="T109" s="28"/>
-    </row>
-    <row r="110" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="24" t="s">
+    </row>
+    <row r="109" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="B110" s="24" t="s">
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+      <c r="T109" s="6"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C110" s="25" t="n">
+      <c r="C110" s="22" t="n">
         <v>310</v>
       </c>
-      <c r="D110" s="25" t="n">
+      <c r="D110" s="22" t="n">
         <v>2643</v>
       </c>
-      <c r="E110" s="25" t="n">
+      <c r="E110" s="22" t="n">
         <v>36</v>
       </c>
-      <c r="F110" s="25" t="n">
+      <c r="F110" s="22" t="n">
         <v>632</v>
       </c>
-      <c r="G110" s="25" t="n">
+      <c r="G110" s="22" t="n">
         <v>1974</v>
       </c>
-      <c r="H110" s="25" t="n">
+      <c r="H110" s="22" t="n">
         <v>1438</v>
       </c>
-      <c r="I110" s="25" t="n">
+      <c r="I110" s="22" t="n">
         <v>307</v>
       </c>
-      <c r="J110" s="25" t="n">
+      <c r="J110" s="22" t="n">
         <v>333</v>
       </c>
-      <c r="K110" s="25" t="n">
+      <c r="K110" s="22" t="n">
         <v>314</v>
       </c>
-      <c r="L110" s="25" t="n">
+      <c r="L110" s="22" t="n">
         <v>954</v>
       </c>
-      <c r="M110" s="25" t="n">
+      <c r="M110" s="22" t="n">
         <v>26</v>
       </c>
-      <c r="N110" s="25" t="n">
+      <c r="N110" s="22" t="n">
         <v>73</v>
       </c>
-      <c r="O110" s="25" t="n">
+      <c r="O110" s="22" t="n">
         <v>272</v>
       </c>
-      <c r="P110" s="25" t="n">
+      <c r="P110" s="22" t="n">
         <v>250</v>
       </c>
-      <c r="Q110" s="25" t="n">
+      <c r="Q110" s="22" t="n">
         <v>99</v>
       </c>
-      <c r="R110" s="25" t="n">
+      <c r="R110" s="22" t="n">
         <v>23</v>
       </c>
-      <c r="S110" s="25" t="n">
+      <c r="S110" s="22" t="n">
         <v>82</v>
       </c>
-      <c r="T110" s="25" t="n">
+      <c r="T110" s="22" t="n">
         <v>41</v>
       </c>
-      <c r="U110" s="22" t="n">
+      <c r="U110" s="0" t="n">
         <v>594</v>
       </c>
-      <c r="V110" s="22" t="n">
+      <c r="V110" s="0" t="n">
         <v>1390</v>
       </c>
-      <c r="W110" s="22" t="n">
+      <c r="W110" s="0" t="n">
         <v>1406</v>
       </c>
-      <c r="X110" s="22" t="n">
+      <c r="X110" s="0" t="n">
         <v>1102</v>
       </c>
-      <c r="Y110" s="22" t="n">
+      <c r="Y110" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="Z110" s="22" t="n">
+      <c r="Z110" s="0" t="n">
         <v>1347</v>
       </c>
     </row>
-    <row r="111" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="24" t="s">
-        <v>581</v>
-      </c>
-      <c r="B111" s="24" t="s">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C111" s="25" t="n">
+      <c r="C111" s="22" t="n">
         <v>51</v>
       </c>
-      <c r="D111" s="25" t="n">
+      <c r="D111" s="22" t="n">
         <v>69</v>
       </c>
-      <c r="E111" s="25" t="n">
+      <c r="E111" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="F111" s="25" t="n">
+      <c r="F111" s="22" t="n">
         <v>11</v>
       </c>
-      <c r="G111" s="25" t="n">
+      <c r="G111" s="22" t="n">
         <v>71</v>
       </c>
-      <c r="H111" s="25" t="n">
+      <c r="H111" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="I111" s="25" t="n">
+      <c r="I111" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="J111" s="25" t="n">
+      <c r="J111" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="K111" s="25" t="n">
+      <c r="K111" s="22" t="n">
         <v>19</v>
       </c>
-      <c r="L111" s="25" t="n">
+      <c r="L111" s="22" t="n">
         <v>32</v>
       </c>
-      <c r="M111" s="25" t="n">
+      <c r="M111" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="N111" s="25" t="n">
+      <c r="N111" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="O111" s="25" t="n">
+      <c r="O111" s="22" t="n">
         <v>108</v>
       </c>
-      <c r="P111" s="25" t="n">
+      <c r="P111" s="22" t="n">
         <v>29</v>
       </c>
-      <c r="Q111" s="25" t="n">
+      <c r="Q111" s="22" t="n">
         <v>76</v>
       </c>
-      <c r="R111" s="25" t="n">
+      <c r="R111" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="S111" s="25" t="n">
+      <c r="S111" s="22" t="n">
         <v>19</v>
       </c>
-      <c r="T111" s="25" t="n">
+      <c r="T111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="U111" s="22" t="n">
+      <c r="U111" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="V111" s="22" t="n">
+      <c r="V111" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="W111" s="22" t="n">
+      <c r="W111" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="X111" s="22" t="n">
+      <c r="X111" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="Y111" s="22" t="n">
+      <c r="Y111" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Z111" s="22" t="n">
+      <c r="Z111" s="0" t="n">
         <v>1839</v>
       </c>
     </row>
-    <row r="112" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="24" t="s">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C112" s="22" t="n">
+        <v>400010</v>
+      </c>
+      <c r="D112" s="22" t="n">
+        <v>1305931</v>
+      </c>
+      <c r="E112" s="22" t="n">
+        <v>8069</v>
+      </c>
+      <c r="F112" s="22" t="n">
+        <v>80961</v>
+      </c>
+      <c r="G112" s="22" t="n">
+        <v>576657</v>
+      </c>
+      <c r="H112" s="22" t="n">
+        <v>234660</v>
+      </c>
+      <c r="I112" s="22" t="n">
+        <v>43124</v>
+      </c>
+      <c r="J112" s="22" t="n">
+        <v>98102</v>
+      </c>
+      <c r="K112" s="22" t="n">
+        <v>5482326</v>
+      </c>
+      <c r="L112" s="22" t="n">
+        <v>678299</v>
+      </c>
+      <c r="M112" s="22" t="n">
+        <v>4873</v>
+      </c>
+      <c r="N112" s="22" t="n">
+        <v>7737</v>
+      </c>
+      <c r="O112" s="22" t="n">
+        <v>38624</v>
+      </c>
+      <c r="P112" s="22" t="n">
+        <v>61938</v>
+      </c>
+      <c r="Q112" s="22" t="n">
+        <v>44956</v>
+      </c>
+      <c r="R112" s="22" t="n">
+        <v>12946</v>
+      </c>
+      <c r="S112" s="22" t="n">
+        <v>54755</v>
+      </c>
+      <c r="T112" s="22" t="n">
+        <v>42175</v>
+      </c>
+      <c r="U112" s="0" t="n">
+        <v>92655</v>
+      </c>
+      <c r="V112" s="0" t="n">
+        <v>268793</v>
+      </c>
+      <c r="W112" s="0" t="n">
+        <v>1269393</v>
+      </c>
+      <c r="X112" s="0" t="n">
+        <v>328663</v>
+      </c>
+      <c r="Y112" s="0" t="n">
+        <v>78569</v>
+      </c>
+      <c r="Z112" s="0" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D113" s="22" t="n">
+        <v>1887502</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F113" s="22" t="n">
+        <v>154310</v>
+      </c>
+      <c r="G113" s="22" t="n">
+        <v>755654</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="I113" s="22" t="n">
+        <v>192269</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="K113" s="22" t="n">
+        <v>10726053</v>
+      </c>
+      <c r="L113" s="22" t="n">
+        <v>2357682</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="N113" s="22" t="n">
+        <v>10092</v>
+      </c>
+      <c r="O113" s="22" t="n">
+        <v>278122</v>
+      </c>
+      <c r="P113" s="22" t="n">
+        <v>127800</v>
+      </c>
+      <c r="Q113" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="R113" s="22" t="n">
+        <v>16078</v>
+      </c>
+      <c r="S113" s="22" t="n">
+        <v>65842</v>
+      </c>
+      <c r="T113" s="22" t="n">
+        <v>166937</v>
+      </c>
+      <c r="U113" s="0" t="n">
+        <v>226000</v>
+      </c>
+      <c r="V113" s="0" t="n">
+        <v>3387713</v>
+      </c>
+      <c r="W113" s="0" t="n">
+        <v>9254467</v>
+      </c>
+      <c r="X113" s="0" t="n">
+        <v>2549251</v>
+      </c>
+      <c r="Y113" s="0" t="n">
+        <v>91709</v>
+      </c>
+      <c r="Z113" s="22" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D114" s="22" t="n">
+        <v>581616</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F114" s="22" t="n">
+        <v>71872</v>
+      </c>
+      <c r="G114" s="22" t="n">
+        <v>178950</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="I114" s="22" t="n">
+        <v>149144</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="K114" s="22" t="n">
+        <v>5201380</v>
+      </c>
+      <c r="L114" s="22" t="n">
+        <v>1632839</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="N114" s="22" t="n">
+        <v>2355</v>
+      </c>
+      <c r="O114" s="22" t="n">
+        <v>239208</v>
+      </c>
+      <c r="P114" s="22" t="n">
+        <v>65862</v>
+      </c>
+      <c r="Q114" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="R114" s="22" t="n">
+        <v>3132</v>
+      </c>
+      <c r="S114" s="22" t="n">
+        <v>11087</v>
+      </c>
+      <c r="T114" s="22" t="n">
+        <v>124711</v>
+      </c>
+      <c r="U114" s="0" t="n">
+        <v>129917</v>
+      </c>
+      <c r="V114" s="0" t="n">
+        <v>3060595</v>
+      </c>
+      <c r="W114" s="0" t="n">
+        <v>7985074</v>
+      </c>
+      <c r="X114" s="0" t="n">
+        <v>2202144</v>
+      </c>
+      <c r="Y114" s="0" t="n">
+        <v>13140</v>
+      </c>
+      <c r="Z114" s="22" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D115" s="22" t="n">
+        <v>1675</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F115" s="22" t="n">
+        <v>1846</v>
+      </c>
+      <c r="G115" s="22" t="n">
+        <v>192</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="I115" s="22" t="n">
+        <v>11</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="K115" s="22" t="n">
+        <v>711</v>
+      </c>
+      <c r="L115" s="22" t="n">
+        <v>2539</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>108</v>
+      </c>
+      <c r="O115" s="22" t="n">
+        <v>790</v>
+      </c>
+      <c r="P115" s="22" t="n">
+        <v>591</v>
+      </c>
+      <c r="Q115" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="R115" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="S115" s="22" t="n">
+        <v>64</v>
+      </c>
+      <c r="T115" s="22" t="n">
+        <v>165</v>
+      </c>
+      <c r="U115" s="0" t="n">
+        <v>2104</v>
+      </c>
+      <c r="V115" s="0" t="n">
+        <v>23063</v>
+      </c>
+      <c r="W115" s="0" t="n">
+        <v>3187</v>
+      </c>
+      <c r="X115" s="0" t="n">
+        <v>4151</v>
+      </c>
+      <c r="Y115" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="Z115" s="22" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="I116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="K116" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="L116" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="N116" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="O116" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="P116" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q116" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="R116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T116" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="U116" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="V116" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="W116" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="X116" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y116" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="Z116" s="22" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F117" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="I117" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="K117" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="L117" s="22" t="n">
+        <v>1.43169189216232E+035</v>
+      </c>
+      <c r="M117" s="22"/>
+      <c r="N117" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="O117" s="22" t="s">
+        <v>612</v>
+      </c>
+      <c r="P117" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q117" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="R117" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S117" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T117" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U117" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="V117" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="W117" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="X117" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z117" s="22" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="118" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="6"/>
+      <c r="S118" s="6"/>
+      <c r="T118" s="6"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B112" s="24" t="s">
+      <c r="B119" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C112" s="25" t="n">
-        <v>400010</v>
-      </c>
-      <c r="D112" s="25" t="n">
-        <v>1305931</v>
-      </c>
-      <c r="E112" s="25" t="n">
-        <v>8069</v>
-      </c>
-      <c r="F112" s="25" t="n">
-        <v>80961</v>
-      </c>
-      <c r="G112" s="25" t="n">
-        <v>576657</v>
-      </c>
-      <c r="H112" s="25" t="n">
-        <v>234660</v>
-      </c>
-      <c r="I112" s="25" t="n">
+      <c r="C119" s="22" t="n">
+        <v>172</v>
+      </c>
+      <c r="D119" s="22" t="n">
+        <v>2515</v>
+      </c>
+      <c r="E119" s="22" t="n">
+        <v>29</v>
+      </c>
+      <c r="F119" s="22" t="n">
+        <v>353</v>
+      </c>
+      <c r="G119" s="22" t="n">
+        <v>1873</v>
+      </c>
+      <c r="H119" s="22" t="n">
+        <v>1384</v>
+      </c>
+      <c r="I119" s="22" t="n">
+        <v>307</v>
+      </c>
+      <c r="J119" s="22" t="n">
+        <v>292</v>
+      </c>
+      <c r="K119" s="22" t="n">
+        <v>299</v>
+      </c>
+      <c r="L119" s="22" t="n">
+        <v>679</v>
+      </c>
+      <c r="M119" s="22" t="n">
+        <v>25</v>
+      </c>
+      <c r="N119" s="22" t="n">
+        <v>70</v>
+      </c>
+      <c r="O119" s="22" t="n">
+        <v>254</v>
+      </c>
+      <c r="P119" s="22" t="n">
+        <v>243</v>
+      </c>
+      <c r="Q119" s="22" t="n">
+        <v>59</v>
+      </c>
+      <c r="R119" s="22" t="n">
+        <v>22</v>
+      </c>
+      <c r="S119" s="22" t="n">
+        <v>82</v>
+      </c>
+      <c r="T119" s="22" t="n">
+        <v>39</v>
+      </c>
+      <c r="U119" s="0" t="n">
+        <v>465</v>
+      </c>
+      <c r="V119" s="0" t="n">
+        <v>1313</v>
+      </c>
+      <c r="W119" s="0" t="n">
+        <v>1186</v>
+      </c>
+      <c r="X119" s="0" t="n">
+        <v>1030</v>
+      </c>
+      <c r="Y119" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z119" s="0" t="n">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C120" s="22" t="n">
+        <v>170223</v>
+      </c>
+      <c r="D120" s="22" t="n">
+        <v>873988</v>
+      </c>
+      <c r="E120" s="22" t="n">
+        <v>7646</v>
+      </c>
+      <c r="F120" s="22" t="n">
+        <v>69398</v>
+      </c>
+      <c r="G120" s="22" t="n">
+        <v>563841</v>
+      </c>
+      <c r="H120" s="22" t="n">
+        <v>218406</v>
+      </c>
+      <c r="I120" s="22" t="n">
         <v>43124</v>
       </c>
-      <c r="J112" s="25" t="n">
-        <v>98102</v>
-      </c>
-      <c r="K112" s="25" t="n">
-        <v>5482326</v>
-      </c>
-      <c r="L112" s="25" t="n">
-        <v>678299</v>
-      </c>
-      <c r="M112" s="25" t="n">
-        <v>4873</v>
-      </c>
-      <c r="N112" s="25" t="n">
-        <v>7737</v>
-      </c>
-      <c r="O112" s="25" t="n">
-        <v>38624</v>
-      </c>
-      <c r="P112" s="25" t="n">
-        <v>61938</v>
-      </c>
-      <c r="Q112" s="25" t="n">
-        <v>44956</v>
-      </c>
-      <c r="R112" s="25" t="n">
-        <v>12946</v>
-      </c>
-      <c r="S112" s="25" t="n">
+      <c r="J120" s="22" t="n">
+        <v>95707</v>
+      </c>
+      <c r="K120" s="22" t="n">
+        <v>4399723</v>
+      </c>
+      <c r="L120" s="22" t="n">
+        <v>162518</v>
+      </c>
+      <c r="M120" s="22" t="n">
+        <v>4872</v>
+      </c>
+      <c r="N120" s="22" t="n">
+        <v>7660</v>
+      </c>
+      <c r="O120" s="22" t="n">
+        <v>37234</v>
+      </c>
+      <c r="P120" s="22" t="n">
+        <v>61632</v>
+      </c>
+      <c r="Q120" s="22" t="n">
+        <v>39766</v>
+      </c>
+      <c r="R120" s="22" t="n">
+        <v>12944</v>
+      </c>
+      <c r="S120" s="22" t="n">
         <v>54755</v>
       </c>
-      <c r="T112" s="25" t="n">
-        <v>42175</v>
-      </c>
-      <c r="U112" s="22" t="n">
-        <v>92655</v>
-      </c>
-      <c r="V112" s="22" t="n">
-        <v>268793</v>
-      </c>
-      <c r="W112" s="22" t="n">
-        <v>1269393</v>
-      </c>
-      <c r="X112" s="22" t="n">
-        <v>328663</v>
-      </c>
-      <c r="Y112" s="22" t="n">
-        <v>78569</v>
-      </c>
-      <c r="Z112" s="22" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="113" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="24" t="s">
-        <v>584</v>
-      </c>
-      <c r="B113" s="24" t="s">
+      <c r="T120" s="22" t="n">
+        <v>42172</v>
+      </c>
+      <c r="U120" s="0" t="n">
+        <v>49156</v>
+      </c>
+      <c r="V120" s="0" t="n">
+        <v>195083</v>
+      </c>
+      <c r="W120" s="0" t="n">
+        <v>165194</v>
+      </c>
+      <c r="X120" s="0" t="n">
+        <v>123806</v>
+      </c>
+      <c r="Y120" s="0" t="n">
+        <v>48403</v>
+      </c>
+      <c r="Z120" s="0" t="n">
+        <v>281879</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C113" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="D113" s="25" t="n">
-        <v>1887502</v>
-      </c>
-      <c r="E113" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="F113" s="25" t="n">
-        <v>154310</v>
-      </c>
-      <c r="G113" s="25" t="n">
-        <v>755654</v>
-      </c>
-      <c r="H113" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="I113" s="25" t="n">
-        <v>192269</v>
-      </c>
-      <c r="J113" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="K113" s="25" t="n">
-        <v>10726053</v>
-      </c>
-      <c r="L113" s="25" t="n">
-        <v>2357682</v>
-      </c>
-      <c r="M113" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="N113" s="25" t="n">
-        <v>10092</v>
-      </c>
-      <c r="O113" s="25" t="n">
-        <v>278122</v>
-      </c>
-      <c r="P113" s="25" t="n">
-        <v>127800</v>
-      </c>
-      <c r="Q113" s="25" t="s">
-        <v>586</v>
-      </c>
-      <c r="R113" s="25" t="n">
-        <v>16078</v>
-      </c>
-      <c r="S113" s="25" t="n">
-        <v>65842</v>
-      </c>
-      <c r="T113" s="25" t="n">
-        <v>166937</v>
-      </c>
-      <c r="U113" s="22" t="n">
-        <v>226000</v>
-      </c>
-      <c r="V113" s="22" t="n">
-        <v>3387713</v>
-      </c>
-      <c r="W113" s="22" t="n">
-        <v>9254467</v>
-      </c>
-      <c r="X113" s="22" t="n">
-        <v>2549251</v>
-      </c>
-      <c r="Y113" s="22" t="n">
-        <v>91709</v>
-      </c>
-      <c r="Z113" s="25" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="114" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="24" t="s">
-        <v>587</v>
-      </c>
-      <c r="B114" s="24" t="s">
+      <c r="C121" s="22" t="n">
+        <v>133020</v>
+      </c>
+      <c r="D121" s="22" t="n">
+        <v>565622</v>
+      </c>
+      <c r="E121" s="22" t="n">
+        <v>5366</v>
+      </c>
+      <c r="F121" s="22" t="n">
+        <v>53607</v>
+      </c>
+      <c r="G121" s="22" t="n">
+        <v>390114</v>
+      </c>
+      <c r="H121" s="22" t="n">
+        <v>133028</v>
+      </c>
+      <c r="I121" s="22" t="n">
+        <v>25569</v>
+      </c>
+      <c r="J121" s="22" t="n">
+        <v>72694</v>
+      </c>
+      <c r="K121" s="22" t="n">
+        <v>4382088</v>
+      </c>
+      <c r="L121" s="22" t="n">
+        <v>108491</v>
+      </c>
+      <c r="M121" s="22" t="n">
+        <v>3533</v>
+      </c>
+      <c r="N121" s="22" t="n">
+        <v>6137</v>
+      </c>
+      <c r="O121" s="22" t="n">
+        <v>29392</v>
+      </c>
+      <c r="P121" s="22" t="n">
+        <v>56794</v>
+      </c>
+      <c r="Q121" s="22" t="n">
+        <v>30045</v>
+      </c>
+      <c r="R121" s="22" t="n">
+        <v>9659</v>
+      </c>
+      <c r="S121" s="22" t="n">
+        <v>40566</v>
+      </c>
+      <c r="T121" s="22" t="n">
+        <v>41791</v>
+      </c>
+      <c r="U121" s="0" t="n">
+        <v>40486</v>
+      </c>
+      <c r="V121" s="0" t="n">
+        <v>127786</v>
+      </c>
+      <c r="W121" s="0" t="n">
+        <v>115369</v>
+      </c>
+      <c r="X121" s="0" t="n">
+        <v>87630</v>
+      </c>
+      <c r="Y121" s="0" t="n">
+        <v>45963</v>
+      </c>
+      <c r="Z121" s="0" t="n">
+        <v>171573</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C114" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="D114" s="25" t="n">
-        <v>581616</v>
-      </c>
-      <c r="E114" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="F114" s="25" t="n">
-        <v>71872</v>
-      </c>
-      <c r="G114" s="25" t="n">
-        <v>178950</v>
-      </c>
-      <c r="H114" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="I114" s="25" t="n">
-        <v>149144</v>
-      </c>
-      <c r="J114" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="K114" s="25" t="n">
-        <v>5201380</v>
-      </c>
-      <c r="L114" s="25" t="n">
-        <v>1632839</v>
-      </c>
-      <c r="M114" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="N114" s="25" t="n">
-        <v>2355</v>
-      </c>
-      <c r="O114" s="25" t="n">
-        <v>239208</v>
-      </c>
-      <c r="P114" s="25" t="n">
-        <v>65862</v>
-      </c>
-      <c r="Q114" s="25" t="s">
-        <v>586</v>
-      </c>
-      <c r="R114" s="25" t="n">
-        <v>3132</v>
-      </c>
-      <c r="S114" s="25" t="n">
-        <v>11087</v>
-      </c>
-      <c r="T114" s="25" t="n">
-        <v>124711</v>
-      </c>
-      <c r="U114" s="22" t="n">
-        <v>129917</v>
-      </c>
-      <c r="V114" s="22" t="n">
-        <v>3060595</v>
-      </c>
-      <c r="W114" s="22" t="n">
-        <v>7985074</v>
-      </c>
-      <c r="X114" s="22" t="n">
-        <v>2202144</v>
-      </c>
-      <c r="Y114" s="22" t="n">
-        <v>13140</v>
-      </c>
-      <c r="Z114" s="25" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="115" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="24" t="s">
-        <v>588</v>
-      </c>
-      <c r="B115" s="24" t="s">
+      <c r="C122" s="22" t="n">
+        <v>13724</v>
+      </c>
+      <c r="D122" s="22" t="n">
+        <v>197138</v>
+      </c>
+      <c r="E122" s="22" t="n">
+        <v>1351</v>
+      </c>
+      <c r="F122" s="22" t="n">
+        <v>6426</v>
+      </c>
+      <c r="G122" s="22" t="n">
+        <v>100062</v>
+      </c>
+      <c r="H122" s="22" t="n">
+        <v>55486</v>
+      </c>
+      <c r="I122" s="22" t="n">
+        <v>11501</v>
+      </c>
+      <c r="J122" s="22" t="n">
+        <v>13711</v>
+      </c>
+      <c r="K122" s="22" t="n">
+        <v>9282</v>
+      </c>
+      <c r="L122" s="22" t="n">
+        <v>25367</v>
+      </c>
+      <c r="M122" s="22" t="n">
+        <v>847</v>
+      </c>
+      <c r="N122" s="22" t="n">
+        <v>655</v>
+      </c>
+      <c r="O122" s="22" t="n">
+        <v>5470</v>
+      </c>
+      <c r="P122" s="22" t="n">
+        <v>1599</v>
+      </c>
+      <c r="Q122" s="22" t="n">
+        <v>5470</v>
+      </c>
+      <c r="R122" s="22" t="n">
+        <v>1762</v>
+      </c>
+      <c r="S122" s="22" t="n">
+        <v>7850</v>
+      </c>
+      <c r="T122" s="22" t="n">
+        <v>170</v>
+      </c>
+      <c r="U122" s="0" t="n">
+        <v>3039</v>
+      </c>
+      <c r="V122" s="0" t="n">
+        <v>42105</v>
+      </c>
+      <c r="W122" s="0" t="n">
+        <v>31619</v>
+      </c>
+      <c r="X122" s="0" t="n">
+        <v>19494</v>
+      </c>
+      <c r="Y122" s="0" t="n">
+        <v>1195</v>
+      </c>
+      <c r="Z122" s="0" t="n">
+        <v>68192</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C115" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="D115" s="25" t="n">
-        <v>1675</v>
-      </c>
-      <c r="E115" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="F115" s="25" t="n">
-        <v>1846</v>
-      </c>
-      <c r="G115" s="25" t="n">
-        <v>192</v>
-      </c>
-      <c r="H115" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="I115" s="25" t="n">
-        <v>11</v>
-      </c>
-      <c r="J115" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="K115" s="25" t="n">
-        <v>711</v>
-      </c>
-      <c r="L115" s="25" t="n">
-        <v>2539</v>
-      </c>
-      <c r="M115" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="N115" s="25" t="n">
-        <v>108</v>
-      </c>
-      <c r="O115" s="25" t="n">
-        <v>790</v>
-      </c>
-      <c r="P115" s="25" t="n">
-        <v>591</v>
-      </c>
-      <c r="Q115" s="25" t="s">
-        <v>586</v>
-      </c>
-      <c r="R115" s="25" t="n">
+      <c r="C123" s="22" t="n">
+        <v>23479</v>
+      </c>
+      <c r="D123" s="22" t="n">
+        <v>111228</v>
+      </c>
+      <c r="E123" s="22" t="n">
+        <v>929</v>
+      </c>
+      <c r="F123" s="22" t="n">
+        <v>9365</v>
+      </c>
+      <c r="G123" s="22" t="n">
+        <v>73665</v>
+      </c>
+      <c r="H123" s="22" t="n">
+        <v>29892</v>
+      </c>
+      <c r="I123" s="22" t="n">
+        <v>6054</v>
+      </c>
+      <c r="J123" s="22" t="n">
+        <v>9302</v>
+      </c>
+      <c r="K123" s="22" t="n">
+        <v>8353</v>
+      </c>
+      <c r="L123" s="22" t="n">
+        <v>28660</v>
+      </c>
+      <c r="M123" s="22" t="n">
+        <v>492</v>
+      </c>
+      <c r="N123" s="22" t="n">
+        <v>868</v>
+      </c>
+      <c r="O123" s="22" t="n">
+        <v>2372</v>
+      </c>
+      <c r="P123" s="22" t="n">
+        <v>3239</v>
+      </c>
+      <c r="Q123" s="22" t="n">
+        <v>4251</v>
+      </c>
+      <c r="R123" s="22" t="n">
+        <v>1523</v>
+      </c>
+      <c r="S123" s="22" t="n">
+        <v>6339</v>
+      </c>
+      <c r="T123" s="22" t="n">
+        <v>211</v>
+      </c>
+      <c r="U123" s="0" t="n">
+        <v>5631</v>
+      </c>
+      <c r="V123" s="0" t="n">
+        <v>25192</v>
+      </c>
+      <c r="W123" s="0" t="n">
+        <v>18206</v>
+      </c>
+      <c r="X123" s="0" t="n">
+        <v>16682</v>
+      </c>
+      <c r="Y123" s="0" t="n">
+        <v>1245</v>
+      </c>
+      <c r="Z123" s="0" t="n">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="124" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
+      <c r="O124" s="6"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
+      <c r="R124" s="6"/>
+      <c r="S124" s="6"/>
+      <c r="T124" s="6"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I125" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K125" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="L125" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="N125" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="O125" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="P125" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q125" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="R125" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S125" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T125" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="U125" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="V125" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="W125" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="X125" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y125" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z125" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I126" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K126" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="L126" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="N126" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="S115" s="25" t="n">
-        <v>64</v>
-      </c>
-      <c r="T115" s="25" t="n">
-        <v>165</v>
-      </c>
-      <c r="U115" s="22" t="n">
-        <v>2104</v>
-      </c>
-      <c r="V115" s="22" t="n">
-        <v>23063</v>
-      </c>
-      <c r="W115" s="22" t="n">
-        <v>3187</v>
-      </c>
-      <c r="X115" s="22" t="n">
-        <v>4151</v>
-      </c>
-      <c r="Y115" s="22" t="n">
-        <v>231</v>
-      </c>
-      <c r="Z115" s="25" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="116" s="22" customFormat="true" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="24" t="s">
-        <v>589</v>
-      </c>
-      <c r="B116" s="24" t="s">
-        <v>590</v>
-      </c>
-      <c r="C116" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="D116" s="25" t="s">
-        <v>591</v>
-      </c>
-      <c r="E116" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="F116" s="25" t="s">
-        <v>592</v>
-      </c>
-      <c r="G116" s="25" t="s">
-        <v>593</v>
-      </c>
-      <c r="H116" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="I116" s="25" t="n">
+      <c r="O126" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="P126" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q126" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="R126" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S126" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J116" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="K116" s="25" t="s">
-        <v>594</v>
-      </c>
-      <c r="L116" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="M116" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="N116" s="25" t="s">
-        <v>596</v>
-      </c>
-      <c r="O116" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="P116" s="25" t="s">
-        <v>598</v>
-      </c>
-      <c r="Q116" s="25" t="s">
-        <v>586</v>
-      </c>
-      <c r="R116" s="25" t="n">
+      <c r="T126" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="U126" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="V126" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="W126" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="X126" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y126" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z126" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I127" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K127" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="L127" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="N127" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O127" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="P127" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q127" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="R127" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="S116" s="25" t="n">
+      <c r="S127" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T116" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="U116" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="V116" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="W116" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="X116" s="22" t="s">
-        <v>603</v>
-      </c>
-      <c r="Y116" s="22" t="s">
-        <v>604</v>
-      </c>
-      <c r="Z116" s="25" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="117" s="22" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="24" t="s">
-        <v>605</v>
-      </c>
-      <c r="B117" s="24" t="s">
-        <v>590</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="D117" s="25" t="s">
-        <v>606</v>
-      </c>
-      <c r="E117" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="F117" s="25" t="n">
+      <c r="T127" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="U127" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="V127" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="W127" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X127" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y127" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z127" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I128" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G117" s="25" t="s">
-        <v>607</v>
-      </c>
-      <c r="H117" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="I117" s="25" t="n">
+      <c r="J128" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K128" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J117" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="K117" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="L117" s="25" t="n">
-        <v>1.43169189216232E+035</v>
-      </c>
-      <c r="M117" s="25"/>
-      <c r="N117" s="25" t="s">
-        <v>609</v>
-      </c>
-      <c r="O117" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="P117" s="25" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q117" s="25" t="s">
-        <v>586</v>
-      </c>
-      <c r="R117" s="25" t="n">
+      <c r="L128" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="N128" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O128" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P128" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q128" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="R128" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="S117" s="25" t="n">
+      <c r="S128" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T117" s="25" t="n">
+      <c r="T128" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U117" s="22" t="s">
-        <v>612</v>
-      </c>
-      <c r="V117" s="22" t="s">
-        <v>613</v>
-      </c>
-      <c r="W117" s="22" t="s">
-        <v>614</v>
-      </c>
-      <c r="X117" s="22" t="s">
-        <v>615</v>
-      </c>
-      <c r="Y117" s="22" t="n">
+      <c r="U128" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V128" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="W128" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="X128" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y128" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z128" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>452</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I129" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Z117" s="25" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="118" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="27" t="s">
-        <v>616</v>
-      </c>
-      <c r="B118" s="28"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="28"/>
-      <c r="J118" s="28"/>
-      <c r="K118" s="28"/>
-      <c r="L118" s="28"/>
-      <c r="M118" s="28"/>
-      <c r="N118" s="28"/>
-      <c r="O118" s="28"/>
-      <c r="P118" s="28"/>
-      <c r="Q118" s="28"/>
-      <c r="R118" s="28"/>
-      <c r="S118" s="28"/>
-      <c r="T118" s="28"/>
-    </row>
-    <row r="119" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="24" t="s">
-        <v>580</v>
-      </c>
-      <c r="B119" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C119" s="25" t="n">
-        <v>172</v>
-      </c>
-      <c r="D119" s="25" t="n">
-        <v>2515</v>
-      </c>
-      <c r="E119" s="25" t="n">
-        <v>29</v>
-      </c>
-      <c r="F119" s="25" t="n">
-        <v>353</v>
-      </c>
-      <c r="G119" s="25" t="n">
-        <v>1873</v>
-      </c>
-      <c r="H119" s="25" t="n">
-        <v>1384</v>
-      </c>
-      <c r="I119" s="25" t="n">
-        <v>307</v>
-      </c>
-      <c r="J119" s="25" t="n">
-        <v>292</v>
-      </c>
-      <c r="K119" s="25" t="n">
-        <v>299</v>
-      </c>
-      <c r="L119" s="25" t="n">
-        <v>679</v>
-      </c>
-      <c r="M119" s="25" t="n">
-        <v>25</v>
-      </c>
-      <c r="N119" s="25" t="n">
-        <v>70</v>
-      </c>
-      <c r="O119" s="25" t="n">
-        <v>254</v>
-      </c>
-      <c r="P119" s="25" t="n">
-        <v>243</v>
-      </c>
-      <c r="Q119" s="25" t="n">
-        <v>59</v>
-      </c>
-      <c r="R119" s="25" t="n">
-        <v>22</v>
-      </c>
-      <c r="S119" s="25" t="n">
-        <v>82</v>
-      </c>
-      <c r="T119" s="25" t="n">
-        <v>39</v>
-      </c>
-      <c r="U119" s="22" t="n">
-        <v>465</v>
-      </c>
-      <c r="V119" s="22" t="n">
-        <v>1313</v>
-      </c>
-      <c r="W119" s="22" t="n">
-        <v>1186</v>
-      </c>
-      <c r="X119" s="22" t="n">
-        <v>1030</v>
-      </c>
-      <c r="Y119" s="22" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z119" s="22" t="n">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="120" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="B120" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C120" s="25" t="n">
-        <v>170223</v>
-      </c>
-      <c r="D120" s="25" t="n">
-        <v>873988</v>
-      </c>
-      <c r="E120" s="25" t="n">
-        <v>7646</v>
-      </c>
-      <c r="F120" s="25" t="n">
-        <v>69398</v>
-      </c>
-      <c r="G120" s="25" t="n">
-        <v>563841</v>
-      </c>
-      <c r="H120" s="25" t="n">
-        <v>218406</v>
-      </c>
-      <c r="I120" s="25" t="n">
-        <v>43124</v>
-      </c>
-      <c r="J120" s="25" t="n">
-        <v>95707</v>
-      </c>
-      <c r="K120" s="25" t="n">
-        <v>4399723</v>
-      </c>
-      <c r="L120" s="25" t="n">
-        <v>162518</v>
-      </c>
-      <c r="M120" s="25" t="n">
-        <v>4872</v>
-      </c>
-      <c r="N120" s="25" t="n">
-        <v>7660</v>
-      </c>
-      <c r="O120" s="25" t="n">
-        <v>37234</v>
-      </c>
-      <c r="P120" s="25" t="n">
-        <v>61632</v>
-      </c>
-      <c r="Q120" s="25" t="n">
-        <v>39766</v>
-      </c>
-      <c r="R120" s="25" t="n">
-        <v>12944</v>
-      </c>
-      <c r="S120" s="25" t="n">
-        <v>54755</v>
-      </c>
-      <c r="T120" s="25" t="n">
-        <v>42172</v>
-      </c>
-      <c r="U120" s="22" t="n">
-        <v>49156</v>
-      </c>
-      <c r="V120" s="22" t="n">
-        <v>195083</v>
-      </c>
-      <c r="W120" s="22" t="n">
-        <v>165194</v>
-      </c>
-      <c r="X120" s="22" t="n">
-        <v>123806</v>
-      </c>
-      <c r="Y120" s="22" t="n">
-        <v>48403</v>
-      </c>
-      <c r="Z120" s="22" t="n">
-        <v>281879</v>
-      </c>
-    </row>
-    <row r="121" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="24" t="s">
-        <v>618</v>
-      </c>
-      <c r="B121" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C121" s="25" t="n">
-        <v>133020</v>
-      </c>
-      <c r="D121" s="25" t="n">
-        <v>565622</v>
-      </c>
-      <c r="E121" s="25" t="n">
-        <v>5366</v>
-      </c>
-      <c r="F121" s="25" t="n">
-        <v>53607</v>
-      </c>
-      <c r="G121" s="25" t="n">
-        <v>390114</v>
-      </c>
-      <c r="H121" s="25" t="n">
-        <v>133028</v>
-      </c>
-      <c r="I121" s="25" t="n">
-        <v>25569</v>
-      </c>
-      <c r="J121" s="25" t="n">
-        <v>72694</v>
-      </c>
-      <c r="K121" s="25" t="n">
-        <v>4382088</v>
-      </c>
-      <c r="L121" s="25" t="n">
-        <v>108491</v>
-      </c>
-      <c r="M121" s="25" t="n">
-        <v>3533</v>
-      </c>
-      <c r="N121" s="25" t="n">
-        <v>6137</v>
-      </c>
-      <c r="O121" s="25" t="n">
-        <v>29392</v>
-      </c>
-      <c r="P121" s="25" t="n">
-        <v>56794</v>
-      </c>
-      <c r="Q121" s="25" t="n">
-        <v>30045</v>
-      </c>
-      <c r="R121" s="25" t="n">
-        <v>9659</v>
-      </c>
-      <c r="S121" s="25" t="n">
-        <v>40566</v>
-      </c>
-      <c r="T121" s="25" t="n">
-        <v>41791</v>
-      </c>
-      <c r="U121" s="22" t="n">
-        <v>40486</v>
-      </c>
-      <c r="V121" s="22" t="n">
-        <v>127786</v>
-      </c>
-      <c r="W121" s="22" t="n">
-        <v>115369</v>
-      </c>
-      <c r="X121" s="22" t="n">
-        <v>87630</v>
-      </c>
-      <c r="Y121" s="22" t="n">
-        <v>45963</v>
-      </c>
-      <c r="Z121" s="22" t="n">
-        <v>171573</v>
-      </c>
-    </row>
-    <row r="122" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="B122" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C122" s="25" t="n">
-        <v>13724</v>
-      </c>
-      <c r="D122" s="25" t="n">
-        <v>197138</v>
-      </c>
-      <c r="E122" s="25" t="n">
-        <v>1351</v>
-      </c>
-      <c r="F122" s="25" t="n">
-        <v>6426</v>
-      </c>
-      <c r="G122" s="25" t="n">
-        <v>100062</v>
-      </c>
-      <c r="H122" s="25" t="n">
-        <v>55486</v>
-      </c>
-      <c r="I122" s="25" t="n">
-        <v>11501</v>
-      </c>
-      <c r="J122" s="25" t="n">
-        <v>13711</v>
-      </c>
-      <c r="K122" s="25" t="n">
-        <v>9282</v>
-      </c>
-      <c r="L122" s="25" t="n">
-        <v>25367</v>
-      </c>
-      <c r="M122" s="25" t="n">
-        <v>847</v>
-      </c>
-      <c r="N122" s="25" t="n">
-        <v>655</v>
-      </c>
-      <c r="O122" s="25" t="n">
-        <v>5470</v>
-      </c>
-      <c r="P122" s="25" t="n">
-        <v>1599</v>
-      </c>
-      <c r="Q122" s="25" t="n">
-        <v>5470</v>
-      </c>
-      <c r="R122" s="25" t="n">
-        <v>1762</v>
-      </c>
-      <c r="S122" s="25" t="n">
-        <v>7850</v>
-      </c>
-      <c r="T122" s="25" t="n">
-        <v>170</v>
-      </c>
-      <c r="U122" s="22" t="n">
-        <v>3039</v>
-      </c>
-      <c r="V122" s="22" t="n">
-        <v>42105</v>
-      </c>
-      <c r="W122" s="22" t="n">
-        <v>31619</v>
-      </c>
-      <c r="X122" s="22" t="n">
-        <v>19494</v>
-      </c>
-      <c r="Y122" s="22" t="n">
-        <v>1195</v>
-      </c>
-      <c r="Z122" s="22" t="n">
-        <v>68192</v>
-      </c>
-    </row>
-    <row r="123" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="24" t="s">
-        <v>620</v>
-      </c>
-      <c r="B123" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C123" s="25" t="n">
-        <v>23479</v>
-      </c>
-      <c r="D123" s="25" t="n">
-        <v>111228</v>
-      </c>
-      <c r="E123" s="25" t="n">
-        <v>929</v>
-      </c>
-      <c r="F123" s="25" t="n">
-        <v>9365</v>
-      </c>
-      <c r="G123" s="25" t="n">
-        <v>73665</v>
-      </c>
-      <c r="H123" s="25" t="n">
-        <v>29892</v>
-      </c>
-      <c r="I123" s="25" t="n">
-        <v>6054</v>
-      </c>
-      <c r="J123" s="25" t="n">
-        <v>9302</v>
-      </c>
-      <c r="K123" s="25" t="n">
-        <v>8353</v>
-      </c>
-      <c r="L123" s="25" t="n">
-        <v>28660</v>
-      </c>
-      <c r="M123" s="25" t="n">
-        <v>492</v>
-      </c>
-      <c r="N123" s="25" t="n">
-        <v>868</v>
-      </c>
-      <c r="O123" s="25" t="n">
-        <v>2372</v>
-      </c>
-      <c r="P123" s="25" t="n">
-        <v>3239</v>
-      </c>
-      <c r="Q123" s="25" t="n">
-        <v>4251</v>
-      </c>
-      <c r="R123" s="25" t="n">
-        <v>1523</v>
-      </c>
-      <c r="S123" s="25" t="n">
-        <v>6339</v>
-      </c>
-      <c r="T123" s="25" t="n">
-        <v>211</v>
-      </c>
-      <c r="U123" s="22" t="n">
-        <v>5631</v>
-      </c>
-      <c r="V123" s="22" t="n">
-        <v>25192</v>
-      </c>
-      <c r="W123" s="22" t="n">
-        <v>18206</v>
-      </c>
-      <c r="X123" s="22" t="n">
-        <v>16682</v>
-      </c>
-      <c r="Y123" s="22" t="n">
-        <v>1245</v>
-      </c>
-      <c r="Z123" s="22" t="n">
-        <v>42114</v>
-      </c>
-    </row>
-    <row r="124" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="27" t="s">
-        <v>621</v>
-      </c>
-      <c r="B124" s="28"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="28"/>
-      <c r="G124" s="28"/>
-      <c r="H124" s="28"/>
-      <c r="I124" s="28"/>
-      <c r="J124" s="28"/>
-      <c r="K124" s="28"/>
-      <c r="L124" s="28"/>
-      <c r="M124" s="28"/>
-      <c r="N124" s="28"/>
-      <c r="O124" s="28"/>
-      <c r="P124" s="28"/>
-      <c r="Q124" s="28"/>
-      <c r="R124" s="28"/>
-      <c r="S124" s="28"/>
-      <c r="T124" s="28"/>
-    </row>
-    <row r="125" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="24" t="s">
-        <v>622</v>
-      </c>
-      <c r="B125" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="C125" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="D125" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="E125" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="F125" s="24" t="n">
-        <v>186</v>
-      </c>
-      <c r="G125" s="24" t="n">
-        <v>34</v>
-      </c>
-      <c r="H125" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="I125" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="J125" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="K125" s="24" t="n">
-        <v>33</v>
-      </c>
-      <c r="L125" s="24" t="n">
-        <v>27</v>
-      </c>
-      <c r="M125" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="N125" s="24" t="n">
-        <v>48</v>
-      </c>
-      <c r="O125" s="24" t="n">
-        <v>95</v>
-      </c>
-      <c r="P125" s="24" t="s">
-        <v>624</v>
-      </c>
-      <c r="Q125" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="R125" s="24" t="n">
+      <c r="J129" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K129" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="N129" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="O129" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="P129" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q129" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="R129" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S129" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T129" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S125" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T125" s="24" t="n">
-        <v>17</v>
-      </c>
-      <c r="U125" s="22" t="n">
-        <v>95</v>
-      </c>
-      <c r="V125" s="22" t="n">
-        <v>145</v>
-      </c>
-      <c r="W125" s="22" t="n">
-        <v>35</v>
-      </c>
-      <c r="X125" s="22" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y125" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z125" s="24" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="126" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="24" t="s">
-        <v>625</v>
-      </c>
-      <c r="B126" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="C126" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="D126" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="E126" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="F126" s="24" t="n">
-        <v>81</v>
-      </c>
-      <c r="G126" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="H126" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="I126" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="J126" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="K126" s="24" t="n">
-        <v>24</v>
-      </c>
-      <c r="L126" s="24" t="n">
-        <v>21</v>
-      </c>
-      <c r="M126" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="N126" s="24" t="n">
-        <v>14</v>
-      </c>
-      <c r="O126" s="24" t="n">
-        <v>32</v>
-      </c>
-      <c r="P126" s="24" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q126" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="R126" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="S126" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T126" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="U126" s="22" t="n">
-        <v>53</v>
-      </c>
-      <c r="V126" s="22" t="n">
-        <v>153</v>
-      </c>
-      <c r="W126" s="22" t="n">
-        <v>32</v>
-      </c>
-      <c r="X126" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y126" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z126" s="24" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="127" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="24" t="s">
-        <v>627</v>
-      </c>
-      <c r="B127" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="C127" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="D127" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="E127" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="F127" s="24" t="n">
-        <v>41</v>
-      </c>
-      <c r="G127" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="H127" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="I127" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J127" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="K127" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="L127" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="M127" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="N127" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="O127" s="24" t="n">
+      <c r="U129" s="0" t="n">
+        <v>282</v>
+      </c>
+      <c r="V129" s="0" t="n">
+        <v>2719</v>
+      </c>
+      <c r="W129" s="0" t="n">
+        <v>287</v>
+      </c>
+      <c r="X129" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="Y129" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="P127" s="24" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q127" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="R127" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S127" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T127" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="U127" s="22" t="n">
-        <v>16</v>
-      </c>
-      <c r="V127" s="22" t="n">
-        <v>19</v>
-      </c>
-      <c r="W127" s="22" t="n">
-        <v>12</v>
-      </c>
-      <c r="X127" s="22" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y127" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z127" s="24" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="128" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="24" t="s">
-        <v>628</v>
-      </c>
-      <c r="B128" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="C128" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="D128" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="E128" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="F128" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="G128" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="H128" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="I128" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="K128" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="M128" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="N128" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="O128" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="P128" s="24" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q128" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="R128" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S128" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T128" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U128" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="V128" s="22" t="n">
-        <v>12</v>
-      </c>
-      <c r="W128" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="X128" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y128" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z128" s="24" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="129" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="24" t="s">
-        <v>630</v>
-      </c>
-      <c r="B129" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="C129" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="D129" s="24" t="n">
-        <v>452</v>
-      </c>
-      <c r="E129" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="F129" s="24" t="n">
-        <v>39</v>
-      </c>
-      <c r="G129" s="24" t="n">
-        <v>65</v>
-      </c>
-      <c r="H129" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="I129" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="K129" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" s="24" t="n">
-        <v>101</v>
-      </c>
-      <c r="M129" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="N129" s="24" t="n">
-        <v>76</v>
-      </c>
-      <c r="O129" s="24" t="n">
-        <v>131</v>
-      </c>
-      <c r="P129" s="24" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q129" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="R129" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S129" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T129" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="U129" s="22" t="n">
-        <v>282</v>
-      </c>
-      <c r="V129" s="22" t="n">
-        <v>2719</v>
-      </c>
-      <c r="W129" s="22" t="n">
-        <v>287</v>
-      </c>
-      <c r="X129" s="22" t="n">
-        <v>61</v>
-      </c>
-      <c r="Y129" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z129" s="24" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="130" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="24"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24"/>
-      <c r="G130" s="24"/>
-      <c r="H130" s="24"/>
-      <c r="I130" s="24"/>
-      <c r="J130" s="24"/>
-      <c r="K130" s="24"/>
-      <c r="L130" s="24"/>
-      <c r="M130" s="24"/>
-      <c r="N130" s="24"/>
-      <c r="O130" s="24"/>
-      <c r="P130" s="24"/>
-      <c r="Q130" s="24"/>
-      <c r="R130" s="24"/>
-      <c r="S130" s="24"/>
-      <c r="T130" s="24"/>
-    </row>
-    <row r="131" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="24"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="24"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="24"/>
-      <c r="K131" s="24"/>
-      <c r="L131" s="24"/>
-      <c r="M131" s="24"/>
-      <c r="N131" s="24"/>
-      <c r="O131" s="24"/>
-      <c r="P131" s="24"/>
-      <c r="Q131" s="24"/>
-      <c r="R131" s="24"/>
-      <c r="S131" s="24"/>
-      <c r="T131" s="24"/>
-    </row>
-    <row r="132" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="24"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="24"/>
-      <c r="I132" s="24"/>
-      <c r="J132" s="24"/>
-      <c r="K132" s="24"/>
-      <c r="L132" s="24"/>
-      <c r="M132" s="24"/>
-      <c r="N132" s="24"/>
-      <c r="O132" s="24"/>
-      <c r="P132" s="24"/>
-      <c r="Q132" s="24"/>
-      <c r="R132" s="24"/>
-      <c r="S132" s="24"/>
-      <c r="T132" s="24"/>
+      <c r="Z129" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
+      <c r="T131" s="2"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
     </row>
     <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11154,27 +11132,25 @@
     <hyperlink ref="X40" r:id="rId28" display="yes, theory mentioned in original publication (linked from repo – https://doi.org/10.1016/j.cpc.2008.02.013), as well as in the documentation file"/>
     <hyperlink ref="G66" r:id="rId29" display="yes, in https://palabos.unige.ch/"/>
     <hyperlink ref="L69" r:id="rId30" display="considering https://ludwig.epcc.ed.ac.uk/index.html as user manual"/>
-    <hyperlink ref="D72" r:id="rId31" display="yes, https://i10git.cs.fau.de/walberla/walberla"/>
-    <hyperlink ref="F72" r:id="rId32" location="development-team" display="yes, http://sailfish.us.edu.pl/about.html#development-team"/>
-    <hyperlink ref="G72" r:id="rId33" display="yes, https://gitlab.com/unigespc/palabos/blob/master/CONTRIBUTING.md"/>
-    <hyperlink ref="L72" r:id="rId34" display="yes, https://github.com/ludwig-cf/ludwig/blob/master/CONTRIBUTING.md"/>
-    <hyperlink ref="N72" r:id="rId35" display="yes, there is a contributing page https://github.com/Olllom/lettuce/blob/master/CONTRIBUTING.rst"/>
-    <hyperlink ref="N84" r:id="rId36" display="api: https://github.com/Olllom/lettuce/blob/master/docs/modules.rst"/>
-    <hyperlink ref="K87" r:id="rId37" display="yes, https://github.com/aharwood2/LUMA/blob/master/LUMA/docs/LUMA%20Coding%20Standards.pdf"/>
-    <hyperlink ref="L97" r:id="rId38" display="yes, README links to https://nvie.com/posts/a-successful-git-branching-model/, but the model is not given a name"/>
-    <hyperlink ref="G98" r:id="rId39" display="yes, https://gitlab.com/unigespc/palabos/-/blob/master/CONTRIBUTING.md"/>
-    <hyperlink ref="L98" r:id="rId40" display="yes, in https://github.com/ludwig-cf/ludwig/blob/master/CONTRIBUTING.md"/>
-    <hyperlink ref="O98" r:id="rId41" display="yes, status is “3 – Alpha” on https://pypi.org/project/pylbm/"/>
-    <hyperlink ref="P98" r:id="rId42" display="yes, status is “4 – Beta” on https://pypi.org/project/lbmpy/"/>
-    <hyperlink ref="M99" r:id="rId43" display="yes, commented https://code.google.com/archive/p/limbes/wikis/QuickStart.wiki"/>
-    <hyperlink ref="N99" r:id="rId44" display="yes, requirements are found at https://github.com/Olllom/lettuce/blob/master/requirements_dev.txt"/>
-    <hyperlink ref="T99" r:id="rId45" display="yes, clearly laid out in https://travis-ci.org/github/UCL/LatBo.jl (very good)"/>
-    <hyperlink ref="C100" r:id="rId46" display="yes, https://www.scd.stfc.ac.uk/Pages/DL_MESO-infomail.aspx"/>
-    <hyperlink ref="F100" r:id="rId47" display="yes, http://sailfish.us.edu.pl/release.html"/>
-    <hyperlink ref="G100" r:id="rId48" display="yes, https://gitlab.com/unigespc/palabos/-/blob/master/CHANGELOG.md"/>
-    <hyperlink ref="I100" r:id="rId49" display="yes, https://github.com/carlosrosales/mplabs/blob/master/CHANGES.TXT"/>
-    <hyperlink ref="K100" r:id="rId50" display="yes, https://github.com/aharwood2/LUMA/wiki/Release-Notes"/>
-    <hyperlink ref="N102" r:id="rId51" display="there is info on contributing to development at https://github.com/Olllom/lettuce/blob/master/CONTRIBUTING.rst"/>
+    <hyperlink ref="G72" r:id="rId31" display="yes, https://gitlab.com/unigespc/palabos/blob/master/CONTRIBUTING.md"/>
+    <hyperlink ref="L72" r:id="rId32" display="yes, https://github.com/ludwig-cf/ludwig/blob/master/CONTRIBUTING.md"/>
+    <hyperlink ref="N72" r:id="rId33" display="yes, there is a contributing page https://github.com/Olllom/lettuce/blob/master/CONTRIBUTING.rst"/>
+    <hyperlink ref="N84" r:id="rId34" display="api: https://github.com/Olllom/lettuce/blob/master/docs/modules.rst"/>
+    <hyperlink ref="K87" r:id="rId35" display="yes, https://github.com/aharwood2/LUMA/blob/master/LUMA/docs/LUMA%20Coding%20Standards.pdf"/>
+    <hyperlink ref="L97" r:id="rId36" display="yes, README links to https://nvie.com/posts/a-successful-git-branching-model/, but the model is not given a name"/>
+    <hyperlink ref="G98" r:id="rId37" display="yes, https://gitlab.com/unigespc/palabos/-/blob/master/CONTRIBUTING.md"/>
+    <hyperlink ref="L98" r:id="rId38" display="yes, in https://github.com/ludwig-cf/ludwig/blob/master/CONTRIBUTING.md"/>
+    <hyperlink ref="O98" r:id="rId39" display="yes, status is “3 – Alpha” on https://pypi.org/project/pylbm/"/>
+    <hyperlink ref="P98" r:id="rId40" display="yes, status is “4 – Beta” on https://pypi.org/project/lbmpy/"/>
+    <hyperlink ref="M99" r:id="rId41" display="yes, commented https://code.google.com/archive/p/limbes/wikis/QuickStart.wiki"/>
+    <hyperlink ref="N99" r:id="rId42" display="yes, requirements are found at https://github.com/Olllom/lettuce/blob/master/requirements_dev.txt"/>
+    <hyperlink ref="T99" r:id="rId43" display="yes, clearly laid out in https://travis-ci.org/github/UCL/LatBo.jl (very good)"/>
+    <hyperlink ref="C100" r:id="rId44" display="yes, https://www.scd.stfc.ac.uk/Pages/DL_MESO-infomail.aspx"/>
+    <hyperlink ref="F100" r:id="rId45" display="yes, http://sailfish.us.edu.pl/release.html"/>
+    <hyperlink ref="G100" r:id="rId46" display="yes, https://gitlab.com/unigespc/palabos/-/blob/master/CHANGELOG.md"/>
+    <hyperlink ref="I100" r:id="rId47" display="yes, https://github.com/carlosrosales/mplabs/blob/master/CHANGES.TXT"/>
+    <hyperlink ref="K100" r:id="rId48" display="yes, https://github.com/aharwood2/LUMA/wiki/Release-Notes"/>
+    <hyperlink ref="N102" r:id="rId49" display="there is info on contributing to development at https://github.com/Olllom/lettuce/blob/master/CONTRIBUTING.rst"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/StateOfPractice/DomainMeasurements/LBM-Peter/Completed_LBS_Combined_MeasurementTemplate_EmpiricalMeasures_ADDED_MUSUBI_UPDATED_STATS.xlsx
+++ b/StateOfPractice/DomainMeasurements/LBM-Peter/Completed_LBS_Combined_MeasurementTemplate_EmpiricalMeasures_ADDED_MUSUBI_UPDATED_STATS.xlsx
@@ -1472,49 +1472,49 @@
     <t xml:space="preserve">({yes*, no, unclear}) *list via string</t>
   </si>
   <si>
-    <t xml:space="preserve">yes, website, User Manual, license, README, mail shots, Example Simulations, training presentation, tutorial exercises, articles, philosophy and overview, development history and functionality, requirements, licensing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes, version control, README, CONTRIBUTING, AUTHORS, CHANGELOG, COPYING, Python interface documentation, website (doxygen, doanloads, publications, history, funding, data privacy, imprint, C++ documentation including tutorials, pystencils)</t>
+    <t xml:space="preserve">yes, website, User Manual, license, README, mail shots, Example Simulations, training presentation, tutorial exercises, articles, philosophy and overview, development history and functionality, requirements, licensing, citation (in user manual), acknowledgements (in user manual)), getting started (in user manual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, version control, README, CONTRIBUTING (only instructions for getting agreement), AUTHORS, CHANGELOG, COPYING, Python interface documentation, website (doxygen, doanloads, publications, history, funding, data privacy, imprint, C++ documentation including tutorials, pystencils), citation (in readme), getting started</t>
   </si>
   <si>
     <t xml:space="preserve">yes, sourceforge site (including wiki, CVS data, installation instructions, code, introduction, copying, authors), readme, todo, copying, authors </t>
   </si>
   <si>
-    <t xml:space="preserve">yes, website, version control, readme, bugs, to do, installation, internals, models, media, performance, api, about, tutorial, simulations, examples and test cases, release notes, media files, motivation and design principles, youtube, supported features and models, reference manual encompasses many of the prior sections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes, website, version control, readme, contributing, change log, copying, doxyfile, publications, forum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes, website, user guide, news, overview, authors, partners and friends, showcases, articles, tech. Reports, developer guide, forum, FAQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, version control, README, COPYING (release notes), CHANGES, User Guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, version control, README,  authors, website (welcome, acknowledgments, examples, featured publications, download and installation, tutorials)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes, README, NOTICE, version control, wiki(about, key people, validation, performance, original publication, installation, testing, post-processor, licensing, release notes, for developers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, README, tutorial, contributing, changes, version control, website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, webpage, wiki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, README, authors, contributing, requirements, getting started  (part of README), credits (part of README), version control, usage, installation, modules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, README, version control, contributors, documentation, tutorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, README, Tutorial Notebooks, API Reference, version control, Project members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, manual, webpage</t>
+    <t xml:space="preserve">yes, website, version control, readme, bugs, to do, installation, internals, models, media, performance, api, about, tutorial, simulations, examples and test cases, release notes, media files, motivation and design principles, youtube, supported features and models, reference manual encompasses many of the prior sections, cite (in about doc), acknowledgements (in about doc), getting started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, website, version control, readme, contributing, change log, copying, doxyfile, publications, forum, citation (in readme), getting started (in manual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, website, user guide, news, overview, authors, partners and friends, showcases, articles, tech. Reports, developer guide, forum, FAQ, citation, getting started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, version control, README, COPYING (release notes), CHANGES, User Guide (has similar to getting started)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, version control, README,  authors, website (welcome, acknowledgments, examples, featured publications, download and installation, tutorials), getting started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, README, NOTICE, version control, wiki(about, key people, validation, performance, original publication, installation, testing, post-processor, licensing, release notes, for developers), coding style, getting started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, README, tutorial, contributing, changes, version control, website, getting started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, webpage, wiki, getting started (quick start)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, README, authors, contributing (2021), requirements, getting started  (part of README), credits (part of README), version control, usage, installation, modules, citation (in readme)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, README, version control, contributors, documentation, tutorial, getting started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, README, Tutorial Notebooks, API Reference, version control, Project members, citation (in readme), getting started, contributing (added 2021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, manual (includes something similar to getting stared), webpage</t>
   </si>
   <si>
     <t xml:space="preserve">Yes, Manual, videos</t>
@@ -1526,22 +1526,22 @@
     <t xml:space="preserve">Yes, version control, README, job log</t>
   </si>
   <si>
-    <t xml:space="preserve">yes, Reference Manual, makefile, readme, authors, version control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes, User’s Guide, makefile, readme, references, requirements, tutorials, version control, authors, release notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes,  Installation Guide, Tutorials, User Interface, Authors, FAQ, makefile, README, version control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HemeLB documentation, Makefile, version control, README</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual (aka notes), Student Guide (by request),  README, Makefile, version control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requirements, tutorials, test cases, makefile,
+    <t xml:space="preserve">yes, Reference Manual, makefile, readme, authors, version control, citation (in readme), getting started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, User’s Guide, makefile, readme, references, requirements, tutorials, version control, authors, release notes, contributing, citation (in readme), getting started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes,  Installation Guide, Tutorials, User Interface, Authors, FAQ, makefile, README, version control, contributing (in wiki), roadmap (in wiki)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HemeLB documentation, Makefile, version control, README, coding guide (in wiki)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual (aka notes), Student Guide (by request),  README, Makefile, version control, citation (in readme), getting started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">requirements, tutorials, test cases, makefile, style guide, quick start
 Bibliography, quick start, README, copyright</t>
   </si>
   <si>
@@ -2251,14 +2251,14 @@
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D67" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="U1" activeCellId="0" sqref="U1"/>
-      <selection pane="bottomLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
-      <selection pane="bottomRight" activeCell="W73" activeCellId="0" sqref="W73"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
+      <selection pane="bottomRight" activeCell="B73" activeCellId="0" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.87"/>
